--- a/files/SM1/K5/K5-P117-T1.xlsx
+++ b/files/SM1/K5/K5-P117-T1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\finnish-space\files\SM1\K5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92285F65-0508-4B23-9677-577FCC48BEF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A13B78F1-4108-4E81-849D-E50C1153479B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
   <si>
     <t>sen jälkeen</t>
   </si>
@@ -70,9 +70,6 @@
     <t>koulu</t>
   </si>
   <si>
-    <t>kahdelta = kello kaksi</t>
-  </si>
-  <si>
     <t>kaveri</t>
   </si>
   <si>
@@ -106,9 +103,6 @@
     <t>kirja</t>
   </si>
   <si>
-    <t>yhdeksältä = kello yhdeksän</t>
-  </si>
-  <si>
     <t>to wake up</t>
   </si>
   <si>
@@ -190,149 +184,174 @@
     <t>school</t>
   </si>
   <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>to play</t>
+  </si>
+  <si>
+    <t>soccer</t>
+  </si>
+  <si>
+    <t>in the evenings</t>
+  </si>
+  <si>
+    <t>often</t>
+  </si>
+  <si>
+    <t>something</t>
+  </si>
+  <si>
+    <t>swimming hall</t>
+  </si>
+  <si>
+    <t>to swim</t>
+  </si>
+  <si>
+    <t>hour</t>
+  </si>
+  <si>
+    <t>shoe</t>
+  </si>
+  <si>
+    <t>to need</t>
+  </si>
+  <si>
+    <t>to choose</t>
+  </si>
+  <si>
+    <t>sandals</t>
+  </si>
+  <si>
+    <t>to want</t>
+  </si>
+  <si>
+    <t>to watch</t>
+  </si>
+  <si>
+    <t>tired</t>
+  </si>
+  <si>
+    <t>book</t>
+  </si>
+  <si>
+    <t>at nine o'clock</t>
+  </si>
+  <si>
+    <t>to brush (one's) teeth</t>
+  </si>
+  <si>
+    <t>to say</t>
+  </si>
+  <si>
+    <t>to go to sleep</t>
+  </si>
+  <si>
+    <t>herätä</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>soida</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>herätyskello</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>käydä suihkussa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pukea päälle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tehdä</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lukea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>syödä</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>juoda</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tehdä ruokaa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kävellä</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pelata</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uida</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tarvita</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>valita</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>haluta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>katsoa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pestä hampaat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sanoa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mennä nukkumaan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kahdelta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kello kaksi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>at two o'clock</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>to play</t>
-  </si>
-  <si>
-    <t>soccer</t>
-  </si>
-  <si>
-    <t>in the evenings</t>
-  </si>
-  <si>
-    <t>often</t>
-  </si>
-  <si>
-    <t>something</t>
-  </si>
-  <si>
-    <t>swimming hall</t>
-  </si>
-  <si>
-    <t>to swim</t>
-  </si>
-  <si>
-    <t>hour</t>
-  </si>
-  <si>
-    <t>shoe</t>
-  </si>
-  <si>
-    <t>to need</t>
-  </si>
-  <si>
-    <t>to choose</t>
-  </si>
-  <si>
-    <t>sandals</t>
-  </si>
-  <si>
-    <t>to want</t>
-  </si>
-  <si>
-    <t>to watch</t>
-  </si>
-  <si>
-    <t>tired</t>
-  </si>
-  <si>
-    <t>book</t>
-  </si>
-  <si>
-    <t>at nine o'clock</t>
-  </si>
-  <si>
-    <t>to brush (one's) teeth</t>
-  </si>
-  <si>
-    <t>to say</t>
-  </si>
-  <si>
-    <t>to go to sleep</t>
-  </si>
-  <si>
-    <t>herätä</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>soida</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>herätyskello</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>käydä suihkussa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pukea päälle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tehdä</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lukea</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>syödä</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>juoda</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tehdä ruokaa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kävellä</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pelata</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uida</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tarvita</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>valita</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>haluta</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>katsoa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pestä hampaat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sanoa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mennä nukkumaan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>at two of the clock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yhdeksältä</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kello yhdeksän</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>at nine of the clock</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -682,10 +701,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B49"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -696,42 +715,42 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -739,15 +758,15 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -755,15 +774,15 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -771,7 +790,7 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -779,15 +798,15 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -795,7 +814,7 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -803,7 +822,7 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -811,7 +830,7 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -819,15 +838,15 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -835,7 +854,7 @@
         <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -843,7 +862,7 @@
         <v>9</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -851,7 +870,7 @@
         <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -859,15 +878,15 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B22" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -875,15 +894,15 @@
         <v>12</v>
       </c>
       <c r="B23" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B24" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -891,7 +910,7 @@
         <v>13</v>
       </c>
       <c r="B25" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -899,7 +918,7 @@
         <v>14</v>
       </c>
       <c r="B26" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -907,183 +926,199 @@
         <v>15</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="B28" t="s">
-        <v>56</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="B29" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>89</v>
+        <v>16</v>
       </c>
       <c r="B30" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="B31" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B32" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B33" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B34" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B35" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="B36" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>23</v>
+        <v>87</v>
       </c>
       <c r="B37" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B38" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>91</v>
+        <v>23</v>
       </c>
       <c r="B39" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B40" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>25</v>
+        <v>89</v>
       </c>
       <c r="B41" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>93</v>
+        <v>24</v>
       </c>
       <c r="B42" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B43" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="B44" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B45" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B46" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B47" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B48" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B49" t="s">
-        <v>77</v>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>93</v>
+      </c>
+      <c r="B50" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>94</v>
+      </c>
+      <c r="B51" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
